--- a/app/config/tables/maleClients/forms/screenPartner/screenPartner.xlsx
+++ b/app/config/tables/maleClients/forms/screenPartner/screenPartner.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40880" windowHeight="26520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="219">
   <si>
     <t>type</t>
   </si>
@@ -405,9 +405,6 @@
   </si>
   <si>
     <t>Client is ELIGIBLE</t>
-  </si>
-  <si>
-    <t>Client is INELIGIBLE for the following reasons:</t>
   </si>
   <si>
     <t>Unclear</t>
@@ -438,9 +435,6 @@
     <t xml:space="preserve">How old were you on your last birthday? </t>
   </si>
   <si>
-    <t>- ${_ineligible_curr_relationship}</t>
-  </si>
-  <si>
     <t>Say: Thank you for your time in answering these questions. Based on some of the answers you gave, you are ineligible to be a part of the study. This in no way affects the care you will receive here at the antenatal clinic. Can I answer any questions you may have?</t>
   </si>
   <si>
@@ -520,9 +514,6 @@
     <t>ineligible_list</t>
   </si>
   <si>
-    <t>list_curr_rel</t>
-  </si>
-  <si>
     <t>ineligible_statement</t>
   </si>
   <si>
@@ -641,6 +632,54 @@
   </si>
   <si>
     <t>a-999</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>end if</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>is_valid</t>
+  </si>
+  <si>
+    <t>selected(data('agree_screening'),'a1')</t>
+  </si>
+  <si>
+    <t>data('is_valid')</t>
+  </si>
+  <si>
+    <t>data('age') &gt;= 18</t>
+  </si>
+  <si>
+    <t>selected(data('curr_relationship'),'a1')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if </t>
+  </si>
+  <si>
+    <t>Client is INELIGIBLE</t>
+  </si>
+  <si>
+    <t>selected(data('refusal_reasons'),'a6')</t>
+  </si>
+  <si>
+    <t>is_willing</t>
+  </si>
+  <si>
+    <t>not(data('is_valid')) &amp;&amp; data('is_willing')</t>
+  </si>
+  <si>
+    <t>not(data('is_willing'))</t>
+  </si>
+  <si>
+    <t>selected(data('client_consent'),'a0')</t>
   </si>
 </sst>
 </file>
@@ -717,7 +756,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="249">
+  <cellStyleXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -967,8 +1006,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -980,9 +1023,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1028,7 +1068,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="249">
+  <cellStyles count="253">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1153,6 +1193,8 @@
     <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1277,6 +1319,8 @@
     <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1611,613 +1655,777 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I47" sqref="I47"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.1640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="51.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.83203125" style="2"/>
-    <col min="9" max="9" width="10.83203125" style="15"/>
-    <col min="10" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="2" width="17" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" customWidth="1"/>
+    <col min="8" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="10.83203125" style="14"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="30">
+    <row r="1" spans="1:17" ht="30">
       <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="B2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="3" t="s">
+        <v>140</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="15"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" s="3" customFormat="1">
-      <c r="B3" s="9" t="s">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" s="3" customFormat="1">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:16" s="3" customFormat="1">
-      <c r="B4" s="9" t="s">
+      <c r="J3" s="16"/>
+    </row>
+    <row r="4" spans="1:17" s="3" customFormat="1">
+      <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="45">
-      <c r="B5" s="9" t="s">
+      <c r="J4" s="16"/>
+    </row>
+    <row r="5" spans="1:17" s="3" customFormat="1" ht="45">
+      <c r="C5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>134</v>
+      <c r="E5" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="I5" s="18" t="b">
+      <c r="G5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J5" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="135">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:17" ht="135">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="C7" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="60">
+      <c r="C8" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="L8" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="60">
+      <c r="C9" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="L9" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="30">
+      <c r="A10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:17" ht="45">
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="B7" s="10" t="s">
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="J12" s="18"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:17" ht="90">
+      <c r="C14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="30">
+      <c r="C15" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="J15" s="18"/>
+      <c r="L15" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="C19" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="C20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:12" ht="30">
+      <c r="C21" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="C22" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="C23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:12" ht="30">
+      <c r="C25" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="C26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:12" ht="210">
+      <c r="C27" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="60">
+      <c r="C28" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J28" s="18"/>
+      <c r="L28" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="C29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" ht="30">
+      <c r="C30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="C31" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="C32" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" ht="45">
+      <c r="A34" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10" ht="60">
+      <c r="C35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" ht="75">
+      <c r="C36" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="4"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="4"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" ht="75">
+      <c r="C39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" s="3" customFormat="1" ht="60">
+      <c r="C40" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A41" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="12"/>
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" ht="45">
+      <c r="C42" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I7" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="45">
-      <c r="B8" s="9" t="s">
+      <c r="E42" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="1:10" ht="30">
+      <c r="A43" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="C44" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="1:10" ht="60">
+      <c r="C46" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:16" ht="90">
-      <c r="B9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="I9" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="I10" s="19"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="B11" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="I11" s="19"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="B12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="19"/>
-    </row>
-    <row r="13" spans="1:16" ht="30">
-      <c r="B13" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="B14" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I14" s="19"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="B15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="19"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I16" s="19"/>
-    </row>
-    <row r="17" spans="2:9" ht="30">
-      <c r="B17" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I17" s="19"/>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="2:9" ht="210">
-      <c r="B19" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I19" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="18"/>
-    </row>
-    <row r="21" spans="2:9" ht="30">
-      <c r="B21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="18"/>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="2:9" ht="60">
-      <c r="B24" s="10" t="s">
+      <c r="D46" s="4"/>
+      <c r="E46" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="4"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="4"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="3:10" ht="30">
+      <c r="C49" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" s="19"/>
-    </row>
-    <row r="26" spans="2:9" ht="75">
-      <c r="B26" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I26" s="19"/>
-    </row>
-    <row r="27" spans="2:9" ht="75">
-      <c r="B27" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="19"/>
-    </row>
-    <row r="28" spans="2:9" s="3" customFormat="1" ht="60">
-      <c r="B28" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" spans="2:9" ht="45">
-      <c r="B29" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D29" s="12" t="s">
+      <c r="E49" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="B30" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="2:9" ht="60">
-      <c r="B31" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="I31" s="19"/>
-    </row>
-    <row r="32" spans="2:9" ht="30">
-      <c r="B32" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I32" s="19"/>
-    </row>
-    <row r="33" spans="9:9">
-      <c r="I33" s="19"/>
-    </row>
-    <row r="34" spans="9:9">
-      <c r="I34" s="19"/>
-    </row>
-    <row r="35" spans="9:9">
-      <c r="I35" s="19"/>
-    </row>
-    <row r="36" spans="9:9">
-      <c r="I36" s="19"/>
-    </row>
-    <row r="37" spans="9:9">
-      <c r="I37" s="19"/>
-    </row>
-    <row r="38" spans="9:9">
-      <c r="I38" s="19"/>
-    </row>
-    <row r="39" spans="9:9">
-      <c r="I39" s="19"/>
-    </row>
-    <row r="40" spans="9:9">
-      <c r="I40" s="19"/>
-    </row>
-    <row r="41" spans="9:9">
-      <c r="I41" s="19"/>
-    </row>
-    <row r="42" spans="9:9">
-      <c r="I42" s="19"/>
-    </row>
-    <row r="43" spans="9:9">
-      <c r="I43" s="19"/>
-    </row>
-    <row r="44" spans="9:9">
-      <c r="I44" s="19"/>
-    </row>
-    <row r="45" spans="9:9">
-      <c r="I45" s="19"/>
-    </row>
-    <row r="46" spans="9:9">
-      <c r="I46" s="19"/>
-    </row>
-    <row r="47" spans="9:9">
-      <c r="I47" s="19"/>
-    </row>
-    <row r="48" spans="9:9">
-      <c r="I48" s="19"/>
-    </row>
-    <row r="49" spans="9:9">
-      <c r="I49" s="19"/>
-    </row>
-    <row r="50" spans="9:9">
-      <c r="I50" s="19"/>
-    </row>
-    <row r="51" spans="9:9">
-      <c r="I51" s="19"/>
-    </row>
-    <row r="52" spans="9:9">
-      <c r="I52" s="19"/>
-    </row>
-    <row r="53" spans="9:9">
-      <c r="I53" s="19"/>
-    </row>
-    <row r="54" spans="9:9">
-      <c r="I54" s="19"/>
-    </row>
-    <row r="55" spans="9:9">
-      <c r="I55" s="19"/>
-    </row>
-    <row r="56" spans="9:9">
-      <c r="I56" s="19"/>
-    </row>
-    <row r="57" spans="9:9">
-      <c r="I57" s="19"/>
-    </row>
-    <row r="58" spans="9:9">
-      <c r="I58" s="19"/>
-    </row>
-    <row r="59" spans="9:9">
-      <c r="I59" s="19"/>
-    </row>
-    <row r="60" spans="9:9">
-      <c r="I60" s="19"/>
-    </row>
-    <row r="61" spans="9:9">
-      <c r="I61" s="19"/>
-    </row>
-    <row r="62" spans="9:9">
-      <c r="I62" s="19"/>
-    </row>
-    <row r="63" spans="9:9">
-      <c r="I63" s="19"/>
-    </row>
-    <row r="64" spans="9:9">
-      <c r="I64" s="19"/>
-    </row>
-    <row r="65" spans="9:9">
-      <c r="I65" s="19"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="3:10">
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="3:10">
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="3:10">
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="3:10">
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" spans="3:10">
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="3:10">
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="3:10">
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="3:10">
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" spans="3:10">
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" spans="3:10">
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" spans="3:10">
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="3:10">
+      <c r="J61" s="18"/>
+    </row>
+    <row r="62" spans="3:10">
+      <c r="J62" s="18"/>
+    </row>
+    <row r="63" spans="3:10">
+      <c r="J63" s="18"/>
+    </row>
+    <row r="64" spans="3:10">
+      <c r="J64" s="18"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="18"/>
+    </row>
+    <row r="66" spans="10:10">
+      <c r="J66" s="18"/>
+    </row>
+    <row r="67" spans="10:10">
+      <c r="J67" s="18"/>
+    </row>
+    <row r="68" spans="10:10">
+      <c r="J68" s="18"/>
+    </row>
+    <row r="69" spans="10:10">
+      <c r="J69" s="18"/>
+    </row>
+    <row r="70" spans="10:10">
+      <c r="J70" s="18"/>
+    </row>
+    <row r="71" spans="10:10">
+      <c r="J71" s="18"/>
+    </row>
+    <row r="72" spans="10:10">
+      <c r="J72" s="18"/>
+    </row>
+    <row r="73" spans="10:10">
+      <c r="J73" s="18"/>
+    </row>
+    <row r="74" spans="10:10">
+      <c r="J74" s="18"/>
+    </row>
+    <row r="75" spans="10:10">
+      <c r="J75" s="18"/>
+    </row>
+    <row r="76" spans="10:10">
+      <c r="J76" s="18"/>
+    </row>
+    <row r="77" spans="10:10">
+      <c r="J77" s="18"/>
+    </row>
+    <row r="78" spans="10:10">
+      <c r="J78" s="18"/>
+    </row>
+    <row r="79" spans="10:10">
+      <c r="J79" s="18"/>
+    </row>
+    <row r="80" spans="10:10">
+      <c r="J80" s="18"/>
+    </row>
+    <row r="81" spans="10:10">
+      <c r="J81" s="18"/>
+    </row>
+    <row r="82" spans="10:10">
+      <c r="J82" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2234,8 +2442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2248,13 +2456,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2262,7 +2470,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -2273,7 +2481,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -2284,7 +2492,7 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>76</v>
@@ -2295,7 +2503,7 @@
         <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -2306,7 +2514,7 @@
         <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -2317,7 +2525,7 @@
         <v>117</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>76</v>
@@ -2328,7 +2536,7 @@
         <v>118</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>76</v>
@@ -2339,7 +2547,7 @@
         <v>118</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>66</v>
@@ -2350,7 +2558,7 @@
         <v>21</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -2361,7 +2569,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>23</v>
@@ -2372,7 +2580,7 @@
         <v>27</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
@@ -2383,7 +2591,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
@@ -2394,7 +2602,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>30</v>
@@ -2405,7 +2613,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>31</v>
@@ -2416,7 +2624,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
@@ -2427,7 +2635,7 @@
         <v>27</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>33</v>
@@ -2438,7 +2646,7 @@
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -2449,7 +2657,7 @@
         <v>27</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>76</v>
@@ -2460,7 +2668,7 @@
         <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>37</v>
@@ -2471,7 +2679,7 @@
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>38</v>
@@ -2482,7 +2690,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>39</v>
@@ -2493,7 +2701,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>40</v>
@@ -2504,7 +2712,7 @@
         <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>41</v>
@@ -2515,7 +2723,7 @@
         <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>42</v>
@@ -2526,7 +2734,7 @@
         <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>43</v>
@@ -2537,7 +2745,7 @@
         <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>44</v>
@@ -2548,7 +2756,7 @@
         <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>36</v>
@@ -2559,7 +2767,7 @@
         <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>34</v>
@@ -2570,7 +2778,7 @@
         <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>76</v>
@@ -2581,7 +2789,7 @@
         <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>77</v>
@@ -2592,7 +2800,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>46</v>
@@ -2603,7 +2811,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>47</v>
@@ -2614,7 +2822,7 @@
         <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>48</v>
@@ -2625,7 +2833,7 @@
         <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>78</v>
@@ -2636,7 +2844,7 @@
         <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>49</v>
@@ -2647,7 +2855,7 @@
         <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>65</v>
@@ -2658,7 +2866,7 @@
         <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>34</v>
@@ -2669,7 +2877,7 @@
         <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>76</v>
@@ -2680,7 +2888,7 @@
         <v>50</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>62</v>
@@ -2691,7 +2899,7 @@
         <v>50</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>51</v>
@@ -2702,7 +2910,7 @@
         <v>50</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>52</v>
@@ -2713,7 +2921,7 @@
         <v>50</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>53</v>
@@ -2724,7 +2932,7 @@
         <v>50</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>54</v>
@@ -2735,7 +2943,7 @@
         <v>50</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>76</v>
@@ -2746,7 +2954,7 @@
         <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>56</v>
@@ -2757,7 +2965,7 @@
         <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>57</v>
@@ -2768,7 +2976,7 @@
         <v>55</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>58</v>
@@ -2779,7 +2987,7 @@
         <v>55</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>59</v>
@@ -2790,7 +2998,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>61</v>
@@ -2801,7 +3009,7 @@
         <v>55</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>60</v>
@@ -2812,7 +3020,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>76</v>
@@ -2823,7 +3031,7 @@
         <v>80</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>81</v>
@@ -2834,7 +3042,7 @@
         <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>82</v>
@@ -2845,7 +3053,7 @@
         <v>80</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>83</v>
@@ -2856,7 +3064,7 @@
         <v>80</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>84</v>
@@ -2867,7 +3075,7 @@
         <v>68</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>86</v>
@@ -2878,7 +3086,7 @@
         <v>68</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>88</v>
@@ -2889,7 +3097,7 @@
         <v>68</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>87</v>
@@ -2900,7 +3108,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>74</v>
@@ -2911,7 +3119,7 @@
         <v>71</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>72</v>
@@ -2922,7 +3130,7 @@
         <v>71</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>73</v>
@@ -2933,7 +3141,7 @@
         <v>71</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>76</v>
@@ -2944,7 +3152,7 @@
         <v>71</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>74</v>
@@ -2955,7 +3163,7 @@
         <v>89</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
@@ -2966,7 +3174,7 @@
         <v>89</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>14</v>
@@ -2977,7 +3185,7 @@
         <v>89</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>76</v>
@@ -2988,7 +3196,7 @@
         <v>89</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>74</v>
@@ -2999,7 +3207,7 @@
         <v>91</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>92</v>
@@ -3010,7 +3218,7 @@
         <v>91</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>93</v>
@@ -3021,7 +3229,7 @@
         <v>91</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>74</v>
@@ -3032,7 +3240,7 @@
         <v>94</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>95</v>
@@ -3043,7 +3251,7 @@
         <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>97</v>
@@ -3054,7 +3262,7 @@
         <v>94</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>96</v>
@@ -3065,7 +3273,7 @@
         <v>94</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>74</v>
@@ -3076,7 +3284,7 @@
         <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>100</v>
@@ -3087,7 +3295,7 @@
         <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>99</v>
@@ -3098,7 +3306,7 @@
         <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>74</v>
@@ -3109,7 +3317,7 @@
         <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>108</v>
@@ -3120,7 +3328,7 @@
         <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>107</v>
@@ -3131,7 +3339,7 @@
         <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>106</v>
@@ -3142,7 +3350,7 @@
         <v>103</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>105</v>
@@ -3153,7 +3361,7 @@
         <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>104</v>
@@ -3164,7 +3372,7 @@
         <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>34</v>
@@ -3175,7 +3383,7 @@
         <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>76</v>
@@ -3186,7 +3394,7 @@
         <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>72</v>
@@ -3197,7 +3405,7 @@
         <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>73</v>
@@ -3208,7 +3416,7 @@
         <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>112</v>
@@ -3219,10 +3427,10 @@
         <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="30">
@@ -3230,7 +3438,7 @@
         <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>120</v>
@@ -3241,7 +3449,7 @@
         <v>121</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>122</v>
@@ -3252,7 +3460,7 @@
         <v>121</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>123</v>
@@ -3263,7 +3471,7 @@
         <v>125</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
@@ -3274,7 +3482,7 @@
         <v>125</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>14</v>
@@ -3285,10 +3493,10 @@
         <v>125</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3318,26 +3526,26 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" t="s">
         <v>131</v>
-      </c>
-      <c r="B2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -3345,18 +3553,18 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/maleClients/forms/screenPartner/screenPartner.xlsx
+++ b/app/config/tables/maleClients/forms/screenPartner/screenPartner.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40880" windowHeight="26520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="221">
   <si>
     <t>type</t>
   </si>
@@ -673,13 +673,19 @@
     <t>is_willing</t>
   </si>
   <si>
-    <t>not(data('is_valid')) &amp;&amp; data('is_willing')</t>
-  </si>
-  <si>
-    <t>not(data('is_willing'))</t>
-  </si>
-  <si>
     <t>selected(data('client_consent'),'a0')</t>
+  </si>
+  <si>
+    <t>not(selected(data('agree_screening'),'a1'))</t>
+  </si>
+  <si>
+    <t>not(selected(data('curr_relationship'),'a1')) &amp;&amp; selected(data('agree_screening'),'a1')</t>
+  </si>
+  <si>
+    <t>model.isSessionVariable</t>
+  </si>
+  <si>
+    <t>boolean</t>
   </si>
 </sst>
 </file>
@@ -756,8 +762,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="253">
+  <cellStyleXfs count="265">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1068,7 +1086,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="253">
+  <cellStyles count="265">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1195,6 +1213,12 @@
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1321,6 +1345,12 @@
     <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1655,13 +1685,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:R86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1677,7 +1707,7 @@
     <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30">
+    <row r="1" spans="1:18" ht="45">
       <c r="A1" s="2" t="s">
         <v>142</v>
       </c>
@@ -1729,22 +1759,24 @@
       <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="C2" s="7" t="s">
-        <v>16</v>
-      </c>
+      <c r="R1" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>140</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="15"/>
+      <c r="J2" s="13"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1752,625 +1784,699 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1">
-      <c r="C3" s="8" t="s">
+    <row r="3" spans="1:18">
+      <c r="C3" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="R3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="C4" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" s="3" customFormat="1">
+      <c r="C7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E7" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:17" s="3" customFormat="1">
-      <c r="C4" s="8" t="s">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:18" s="3" customFormat="1">
+      <c r="C8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="1:17" s="3" customFormat="1" ht="45">
-      <c r="C5" s="8" t="s">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:18" s="3" customFormat="1" ht="45">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E9" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J5" s="17" t="b">
+      <c r="J9" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="135">
-      <c r="C6" s="8" t="s">
+    <row r="10" spans="1:18" ht="135">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="11" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="C7" s="9" t="s">
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="C11" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="18" t="b">
+      <c r="J11" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="60">
-      <c r="C8" s="9" t="s">
+    <row r="12" spans="1:18" ht="60">
+      <c r="C12" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="L8" s="2" t="s">
+      <c r="J12" s="18"/>
+      <c r="L12" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="60">
-      <c r="C9" s="9" t="s">
+    <row r="13" spans="1:18" ht="60">
+      <c r="C13" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="J9" s="18"/>
-      <c r="L9" s="2" t="s">
+      <c r="J13" s="18"/>
+      <c r="L13" s="2" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="30">
-      <c r="A10" s="2" t="s">
+    <row r="14" spans="1:18" ht="45">
+      <c r="A14" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:17" ht="45">
-      <c r="C11" s="8" t="s">
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" ht="45">
+      <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="5"/>
-      <c r="F12" s="3"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="5"/>
-      <c r="F13" s="3"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:17" ht="90">
-      <c r="C14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="30">
-      <c r="C15" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="G15" s="3"/>
       <c r="J15" s="18"/>
-      <c r="L15" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5"/>
+      <c r="F16" s="3"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" ht="30">
       <c r="A17" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G17" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="F17" s="3"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:12" ht="90">
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="30">
+      <c r="C19" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="J19" s="18"/>
+      <c r="L19" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="J18" s="18"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="C19" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J19" s="18"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="C20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="18"/>
-    </row>
-    <row r="21" spans="1:12" ht="30">
-      <c r="C21" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J21" s="18"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="C22" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="G22" s="3"/>
       <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:12">
       <c r="C23" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="C24" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="18"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="2" t="s">
-        <v>174</v>
+      <c r="E24" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:12" ht="30">
       <c r="C25" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>63</v>
+        <v>154</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="J25" s="18"/>
     </row>
     <row r="26" spans="1:12">
       <c r="C26" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="C27" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E27" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:12" ht="30">
+      <c r="C29" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="C30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J26" s="18"/>
-    </row>
-    <row r="27" spans="1:12" ht="210">
-      <c r="C27" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="60">
-      <c r="C28" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="L28" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="C29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" s="17"/>
-    </row>
-    <row r="30" spans="1:12" ht="30">
-      <c r="C30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J30" s="17"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:12" ht="210">
       <c r="C31" s="9" t="s">
         <v>170</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="60">
+      <c r="C32" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="J32" s="18"/>
+      <c r="L32" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="C33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" ht="30">
+      <c r="C34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="C35" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="J31" s="18"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="C32" s="9" t="s">
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="C36" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E36" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="J32" s="17"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="J33" s="17"/>
-    </row>
-    <row r="34" spans="1:10" ht="45">
-      <c r="A34" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J34" s="17"/>
-    </row>
-    <row r="35" spans="1:10" ht="60">
-      <c r="C35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" spans="1:10" ht="75">
-      <c r="C36" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J36" s="18"/>
+      <c r="J36" s="17"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="4"/>
-      <c r="J37" s="18"/>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="1:10" ht="75">
       <c r="A38" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="4"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" ht="75">
-      <c r="C39" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" ht="60">
+      <c r="C39" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="4"/>
       <c r="E39" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J39" s="18"/>
     </row>
-    <row r="40" spans="1:10" s="3" customFormat="1" ht="60">
+    <row r="40" spans="1:10" ht="75">
       <c r="C40" s="10" t="s">
         <v>170</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J40" s="16"/>
-    </row>
-    <row r="41" spans="1:10" s="3" customFormat="1" ht="30">
-      <c r="A41" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>218</v>
+        <v>111</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="12"/>
-      <c r="J41" s="16"/>
-    </row>
-    <row r="42" spans="1:10" ht="45">
-      <c r="C42" s="9" t="s">
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="4"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" ht="75">
+      <c r="C43" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" s="3" customFormat="1" ht="60">
+      <c r="C44" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="1:10" s="3" customFormat="1" ht="30">
+      <c r="A45" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="12"/>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="1:10" ht="45">
+      <c r="C46" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E46" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J42" s="17"/>
-    </row>
-    <row r="43" spans="1:10" ht="30">
-      <c r="A43" s="2" t="s">
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="1:10" ht="30">
+      <c r="A47" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J43" s="17"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="C44" s="9" t="s">
+      <c r="J47" s="17"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="C48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E48" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="J44" s="17"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="2" t="s">
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J45" s="17"/>
-    </row>
-    <row r="46" spans="1:10" ht="60">
-      <c r="C46" s="10" t="s">
+      <c r="J49" s="17"/>
+    </row>
+    <row r="50" spans="1:10" ht="60">
+      <c r="C50" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="11" t="s">
+      <c r="D50" s="4"/>
+      <c r="E50" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J46" s="18"/>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="2" t="s">
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="4"/>
-      <c r="J47" s="18"/>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="2" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="4"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="4"/>
-      <c r="J48" s="18"/>
-    </row>
-    <row r="49" spans="3:10" ht="30">
-      <c r="C49" s="9" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="4"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="1:10" ht="30">
+      <c r="C53" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E53" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J49" s="18"/>
-    </row>
-    <row r="50" spans="3:10">
-      <c r="J50" s="18"/>
-    </row>
-    <row r="51" spans="3:10">
-      <c r="J51" s="18"/>
-    </row>
-    <row r="52" spans="3:10">
-      <c r="J52" s="18"/>
-    </row>
-    <row r="53" spans="3:10">
       <c r="J53" s="18"/>
     </row>
-    <row r="54" spans="3:10">
+    <row r="54" spans="1:10">
       <c r="J54" s="18"/>
     </row>
-    <row r="55" spans="3:10">
+    <row r="55" spans="1:10">
       <c r="J55" s="18"/>
     </row>
-    <row r="56" spans="3:10">
+    <row r="56" spans="1:10">
       <c r="J56" s="18"/>
     </row>
-    <row r="57" spans="3:10">
+    <row r="57" spans="1:10">
       <c r="J57" s="18"/>
     </row>
-    <row r="58" spans="3:10">
+    <row r="58" spans="1:10">
       <c r="J58" s="18"/>
     </row>
-    <row r="59" spans="3:10">
+    <row r="59" spans="1:10">
       <c r="J59" s="18"/>
     </row>
-    <row r="60" spans="3:10">
+    <row r="60" spans="1:10">
       <c r="J60" s="18"/>
     </row>
-    <row r="61" spans="3:10">
+    <row r="61" spans="1:10">
       <c r="J61" s="18"/>
     </row>
-    <row r="62" spans="3:10">
+    <row r="62" spans="1:10">
       <c r="J62" s="18"/>
     </row>
-    <row r="63" spans="3:10">
+    <row r="63" spans="1:10">
       <c r="J63" s="18"/>
     </row>
-    <row r="64" spans="3:10">
+    <row r="64" spans="1:10">
       <c r="J64" s="18"/>
     </row>
     <row r="65" spans="10:10">
@@ -2426,6 +2532,18 @@
     </row>
     <row r="82" spans="10:10">
       <c r="J82" s="18"/>
+    </row>
+    <row r="83" spans="10:10">
+      <c r="J83" s="18"/>
+    </row>
+    <row r="84" spans="10:10">
+      <c r="J84" s="18"/>
+    </row>
+    <row r="85" spans="10:10">
+      <c r="J85" s="18"/>
+    </row>
+    <row r="86" spans="10:10">
+      <c r="J86" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/app/config/tables/maleClients/forms/screenPartner/screenPartner.xlsx
+++ b/app/config/tables/maleClients/forms/screenPartner/screenPartner.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\maleClients\forms\screenPartner\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="217">
   <si>
     <t>type</t>
   </si>
@@ -32,9 +37,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>constraint_message</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -42,21 +44,6 @@
   </si>
   <si>
     <t>calculation</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>read_only</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>audio</t>
-  </si>
-  <si>
-    <t>media::image</t>
   </si>
   <si>
     <t>yes_no</t>
@@ -553,9 +540,6 @@
     <t>display.text</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>choice_list_name</t>
   </si>
   <si>
@@ -568,9 +552,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_version</t>
   </si>
   <si>
@@ -686,12 +667,24 @@
   </si>
   <si>
     <t>boolean</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.constraint_message.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1359,6 +1352,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1685,87 +1681,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R86"/>
+  <dimension ref="A1:M86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="17" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" style="9" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" style="11" customWidth="1"/>
     <col min="6" max="6" width="51.33203125" style="2" customWidth="1"/>
     <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="9" width="10.83203125" style="2"/>
-    <col min="10" max="10" width="10.83203125" style="14"/>
-    <col min="11" max="16384" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="10.77734375" style="2"/>
+    <col min="9" max="9" width="30" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="14"/>
+    <col min="11" max="12" width="10.77734375" style="2"/>
+    <col min="13" max="13" width="21.109375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="45">
+    <row r="1" spans="1:13" ht="20.3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="M1" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B2" s="2" t="b">
         <v>0</v>
@@ -1779,18 +1763,14 @@
       <c r="J2" s="13"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="11" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1799,21 +1779,17 @@
       <c r="J3" s="13"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="R3" s="2" t="b">
+      <c r="M3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="11" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1822,17 +1798,13 @@
       <c r="J4" s="13"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="R4" s="2" t="b">
+      <c r="M4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="1"/>
@@ -1843,21 +1815,17 @@
       <c r="J5" s="13"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:18">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C6" s="7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="11" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1865,684 +1833,680 @@
       <c r="J6" s="15"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1">
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C7" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J7" s="16"/>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1">
+    <row r="8" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C8" s="8" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" ht="45">
+    <row r="9" spans="1:13" s="3" customFormat="1" ht="47.15" x14ac:dyDescent="0.3">
       <c r="C9" s="8" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="J9" s="17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="135">
+    <row r="10" spans="1:13" ht="141.4" x14ac:dyDescent="0.3">
       <c r="C10" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="11" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="J10" s="18"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J11" s="18" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="60">
+    <row r="12" spans="1:13" ht="62.85" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J12" s="18"/>
       <c r="L12" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="62.85" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="J13" s="18"/>
       <c r="L13" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J14" s="18"/>
     </row>
-    <row r="15" spans="1:18" ht="45">
+    <row r="15" spans="1:13" ht="47.15" x14ac:dyDescent="0.3">
       <c r="C15" s="8" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="11" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="J15" s="18"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
       <c r="F16" s="3"/>
       <c r="J16" s="18"/>
     </row>
-    <row r="17" spans="1:12" ht="30">
+    <row r="17" spans="1:12" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
       <c r="F17" s="3"/>
       <c r="J17" s="18"/>
     </row>
-    <row r="18" spans="1:12" ht="90">
+    <row r="18" spans="1:12" ht="94.25" x14ac:dyDescent="0.3">
       <c r="C18" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="31.45" x14ac:dyDescent="0.3">
       <c r="C19" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G19" s="3"/>
       <c r="J19" s="18"/>
       <c r="L19" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G20" s="3"/>
       <c r="J20" s="18"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G21" s="3"/>
       <c r="J21" s="18"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="G22" s="3"/>
       <c r="J22" s="18"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C23" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="J23" s="18"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C24" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J24" s="18"/>
     </row>
-    <row r="25" spans="1:12" ht="30">
+    <row r="25" spans="1:12" ht="31.45" x14ac:dyDescent="0.3">
       <c r="C25" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="J25" s="18"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C26" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="J26" s="18"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C27" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J27" s="18"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="J28" s="18"/>
     </row>
-    <row r="29" spans="1:12" ht="30">
+    <row r="29" spans="1:12" ht="31.45" x14ac:dyDescent="0.3">
       <c r="C29" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="J29" s="18"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C30" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J30" s="18"/>
     </row>
-    <row r="31" spans="1:12" ht="210">
+    <row r="31" spans="1:12" ht="62.85" x14ac:dyDescent="0.3">
       <c r="C31" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="60">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="62.85" x14ac:dyDescent="0.3">
       <c r="C32" s="9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="J32" s="18"/>
       <c r="L32" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C33" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J33" s="17"/>
     </row>
-    <row r="34" spans="1:10" ht="30">
+    <row r="34" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="C34" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J34" s="17"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J35" s="18"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C36" s="9" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J36" s="17"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="J37" s="17"/>
+    </row>
+    <row r="38" spans="1:10" ht="78.55" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="C39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J37" s="17"/>
-    </row>
-    <row r="38" spans="1:10" ht="75">
-      <c r="A38" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="J38" s="17"/>
-    </row>
-    <row r="39" spans="1:10" ht="60">
-      <c r="C39" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J39" s="18"/>
     </row>
-    <row r="40" spans="1:10" ht="75">
+    <row r="40" spans="1:10" ht="78.55" x14ac:dyDescent="0.3">
       <c r="C40" s="10" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="J40" s="18"/>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="4"/>
       <c r="J41" s="18"/>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="4"/>
       <c r="J42" s="18"/>
     </row>
-    <row r="43" spans="1:10" ht="75">
+    <row r="43" spans="1:10" ht="78.55" x14ac:dyDescent="0.3">
       <c r="C43" s="10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" s="3" customFormat="1" ht="62.85" x14ac:dyDescent="0.3">
+      <c r="C44" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J43" s="18"/>
-    </row>
-    <row r="44" spans="1:10" s="3" customFormat="1" ht="60">
-      <c r="C44" s="10" t="s">
-        <v>170</v>
-      </c>
       <c r="D44" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J44" s="16"/>
     </row>
-    <row r="45" spans="1:10" s="3" customFormat="1" ht="30">
+    <row r="45" spans="1:10" s="3" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="4"/>
       <c r="E45" s="12"/>
       <c r="J45" s="16"/>
     </row>
-    <row r="46" spans="1:10" ht="45">
+    <row r="46" spans="1:10" ht="47.15" x14ac:dyDescent="0.3">
       <c r="C46" s="9" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J46" s="17"/>
     </row>
-    <row r="47" spans="1:10" ht="30">
+    <row r="47" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="J47" s="17"/>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C48" s="9" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="J48" s="17"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="J49" s="17"/>
     </row>
-    <row r="50" spans="1:10" ht="60">
+    <row r="50" spans="1:10" ht="78.55" x14ac:dyDescent="0.3">
       <c r="C50" s="10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="11" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="J50" s="18"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="4"/>
       <c r="J51" s="18"/>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="4"/>
       <c r="J52" s="18"/>
     </row>
-    <row r="53" spans="1:10" ht="30">
+    <row r="53" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="C53" s="9" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J53" s="18"/>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J54" s="18"/>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J55" s="18"/>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J56" s="18"/>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J57" s="18"/>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J58" s="18"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J59" s="18"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J60" s="18"/>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J61" s="18"/>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J62" s="18"/>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J63" s="18"/>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J64" s="18"/>
     </row>
-    <row r="65" spans="10:10">
+    <row r="65" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J65" s="18"/>
     </row>
-    <row r="66" spans="10:10">
+    <row r="66" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J66" s="18"/>
     </row>
-    <row r="67" spans="10:10">
+    <row r="67" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J67" s="18"/>
     </row>
-    <row r="68" spans="10:10">
+    <row r="68" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J68" s="18"/>
     </row>
-    <row r="69" spans="10:10">
+    <row r="69" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J69" s="18"/>
     </row>
-    <row r="70" spans="10:10">
+    <row r="70" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J70" s="18"/>
     </row>
-    <row r="71" spans="10:10">
+    <row r="71" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J71" s="18"/>
     </row>
-    <row r="72" spans="10:10">
+    <row r="72" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J72" s="18"/>
     </row>
-    <row r="73" spans="10:10">
+    <row r="73" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J73" s="18"/>
     </row>
-    <row r="74" spans="10:10">
+    <row r="74" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J74" s="18"/>
     </row>
-    <row r="75" spans="10:10">
+    <row r="75" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J75" s="18"/>
     </row>
-    <row r="76" spans="10:10">
+    <row r="76" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J76" s="18"/>
     </row>
-    <row r="77" spans="10:10">
+    <row r="77" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J77" s="18"/>
     </row>
-    <row r="78" spans="10:10">
+    <row r="78" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J78" s="18"/>
     </row>
-    <row r="79" spans="10:10">
+    <row r="79" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J79" s="18"/>
     </row>
-    <row r="80" spans="10:10">
+    <row r="80" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J80" s="18"/>
     </row>
-    <row r="81" spans="10:10">
+    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J81" s="18"/>
     </row>
-    <row r="82" spans="10:10">
+    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J82" s="18"/>
     </row>
-    <row r="83" spans="10:10">
+    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J83" s="18"/>
     </row>
-    <row r="84" spans="10:10">
+    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J84" s="18"/>
     </row>
-    <row r="85" spans="10:10">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J85" s="18"/>
     </row>
-    <row r="86" spans="10:10">
+    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J86" s="18"/>
     </row>
   </sheetData>
@@ -2564,1057 +2528,1057 @@
       <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="2"/>
-    <col min="3" max="3" width="22.1640625" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="10.77734375" style="2"/>
+    <col min="3" max="3" width="22.109375" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.77734375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="47.15" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="92" spans="1:3" ht="31.45" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="30">
-      <c r="A46" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="30">
-      <c r="A47" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="30">
-      <c r="A48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="30">
-      <c r="A49" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="30">
-      <c r="A50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="30">
-      <c r="A51" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="30">
-      <c r="A52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="30">
-      <c r="A53" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="30">
-      <c r="A54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="30">
-      <c r="A55" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="30">
-      <c r="A56" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="30">
-      <c r="A57" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="30">
-      <c r="A58" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="30">
-      <c r="A59" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="30">
-      <c r="A60" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="45">
-      <c r="A72" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30">
-      <c r="A74" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="30">
-      <c r="A77" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="30">
-      <c r="A79" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="30">
-      <c r="A80" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="30">
-      <c r="A81" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="30">
-      <c r="A82" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="30">
-      <c r="A83" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="30">
-      <c r="A84" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="30">
-      <c r="A85" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="30">
-      <c r="A89" s="2" t="s">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="30">
-      <c r="A90" s="2" t="s">
+      <c r="B93" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="30">
-      <c r="A91" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="B94" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="30">
-      <c r="A92" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3632,57 +3596,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="20.1640625" customWidth="1"/>
+    <col min="1" max="2" width="20.109375" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>20140513</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/maleClients/forms/screenPartner/screenPartner.xlsx
+++ b/app/config/tables/maleClients/forms/screenPartner/screenPartner.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="216">
   <si>
     <t>type</t>
   </si>
@@ -535,9 +535,6 @@
   </si>
   <si>
     <t>end screen</t>
-  </si>
-  <si>
-    <t>display.text</t>
   </si>
   <si>
     <t>choice_list_name</t>
@@ -1711,7 +1708,7 @@
         <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -1723,16 +1720,16 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J1" s="13" t="s">
         <v>3</v>
@@ -1744,12 +1741,12 @@
         <v>5</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="b">
         <v>0</v>
@@ -1766,11 +1763,11 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C3" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1785,11 +1782,11 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1804,7 +1801,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="1"/>
@@ -1907,34 +1904,34 @@
     </row>
     <row r="12" spans="1:13" ht="62.85" x14ac:dyDescent="0.3">
       <c r="C12" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="J12" s="18"/>
       <c r="L12" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="62.85" x14ac:dyDescent="0.3">
       <c r="C13" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J13" s="18"/>
       <c r="L13" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="47.15" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J14" s="18"/>
     </row>
@@ -1953,7 +1950,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="5"/>
@@ -1962,10 +1959,10 @@
     </row>
     <row r="17" spans="1:12" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="5"/>
@@ -1986,35 +1983,35 @@
         <v>135</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="31.45" x14ac:dyDescent="0.3">
       <c r="C19" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="G19" s="3"/>
       <c r="J19" s="18"/>
       <c r="L19" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G20" s="3"/>
       <c r="J20" s="18"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G21" s="3"/>
       <c r="J21" s="18"/>
@@ -2148,19 +2145,19 @@
         <v>120</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="62.85" x14ac:dyDescent="0.3">
       <c r="C32" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E32" s="11" t="s">
         <v>198</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>199</v>
       </c>
       <c r="J32" s="18"/>
       <c r="L32" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -2219,16 +2216,16 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J37" s="17"/>
     </row>
     <row r="38" spans="1:10" ht="78.55" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J38" s="17"/>
     </row>
@@ -2240,7 +2237,7 @@
         <v>156</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>107</v>
@@ -2264,7 +2261,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="4"/>
@@ -2272,10 +2269,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="4"/>
@@ -2317,10 +2314,10 @@
     </row>
     <row r="45" spans="1:10" s="3" customFormat="1" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="4"/>
@@ -2344,10 +2341,10 @@
     </row>
     <row r="47" spans="1:10" ht="31.45" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J47" s="17"/>
     </row>
@@ -2365,7 +2362,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J49" s="17"/>
     </row>
@@ -2384,7 +2381,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="4"/>
@@ -2392,7 +2389,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="4"/>
@@ -2524,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
@@ -2538,13 +2535,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -2552,7 +2549,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -2563,7 +2560,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -2574,7 +2571,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>70</v>
@@ -2585,7 +2582,7 @@
         <v>111</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -2596,7 +2593,7 @@
         <v>111</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -2607,7 +2604,7 @@
         <v>111</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>70</v>
@@ -2618,7 +2615,7 @@
         <v>112</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>70</v>
@@ -2629,7 +2626,7 @@
         <v>112</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>60</v>
@@ -2640,7 +2637,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>16</v>
@@ -2651,7 +2648,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>17</v>
@@ -2662,7 +2659,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
@@ -2673,7 +2670,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>23</v>
@@ -2684,7 +2681,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
@@ -2695,7 +2692,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>25</v>
@@ -2706,7 +2703,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -2717,7 +2714,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
@@ -2728,7 +2725,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>28</v>
@@ -2739,7 +2736,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>70</v>
@@ -2750,7 +2747,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>31</v>
@@ -2761,7 +2758,7 @@
         <v>29</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
@@ -2772,7 +2769,7 @@
         <v>29</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>33</v>
@@ -2783,7 +2780,7 @@
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>34</v>
@@ -2794,7 +2791,7 @@
         <v>29</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>35</v>
@@ -2805,7 +2802,7 @@
         <v>29</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>36</v>
@@ -2816,7 +2813,7 @@
         <v>29</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>37</v>
@@ -2827,7 +2824,7 @@
         <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>38</v>
@@ -2838,7 +2835,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>30</v>
@@ -2849,7 +2846,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>28</v>
@@ -2860,7 +2857,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>70</v>
@@ -2871,7 +2868,7 @@
         <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>71</v>
@@ -2882,7 +2879,7 @@
         <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>40</v>
@@ -2893,7 +2890,7 @@
         <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>41</v>
@@ -2904,7 +2901,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>42</v>
@@ -2915,7 +2912,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>72</v>
@@ -2926,7 +2923,7 @@
         <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>43</v>
@@ -2937,7 +2934,7 @@
         <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>59</v>
@@ -2948,7 +2945,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>28</v>
@@ -2959,7 +2956,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>70</v>
@@ -2970,7 +2967,7 @@
         <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>56</v>
@@ -2981,7 +2978,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>45</v>
@@ -2992,7 +2989,7 @@
         <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>46</v>
@@ -3003,7 +3000,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>47</v>
@@ -3014,7 +3011,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>48</v>
@@ -3025,7 +3022,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>70</v>
@@ -3036,7 +3033,7 @@
         <v>49</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>50</v>
@@ -3047,7 +3044,7 @@
         <v>49</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>51</v>
@@ -3058,7 +3055,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>52</v>
@@ -3069,7 +3066,7 @@
         <v>49</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>53</v>
@@ -3080,7 +3077,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>55</v>
@@ -3091,7 +3088,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>54</v>
@@ -3102,7 +3099,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>70</v>
@@ -3113,7 +3110,7 @@
         <v>74</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>75</v>
@@ -3124,7 +3121,7 @@
         <v>74</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>76</v>
@@ -3135,7 +3132,7 @@
         <v>74</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>77</v>
@@ -3146,7 +3143,7 @@
         <v>74</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>78</v>
@@ -3157,7 +3154,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>80</v>
@@ -3168,7 +3165,7 @@
         <v>62</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>82</v>
@@ -3179,7 +3176,7 @@
         <v>62</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>81</v>
@@ -3190,7 +3187,7 @@
         <v>62</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>68</v>
@@ -3201,7 +3198,7 @@
         <v>65</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>66</v>
@@ -3212,7 +3209,7 @@
         <v>65</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>67</v>
@@ -3223,7 +3220,7 @@
         <v>65</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>70</v>
@@ -3234,7 +3231,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>68</v>
@@ -3245,7 +3242,7 @@
         <v>83</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>7</v>
@@ -3256,7 +3253,7 @@
         <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
@@ -3267,7 +3264,7 @@
         <v>83</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>70</v>
@@ -3278,7 +3275,7 @@
         <v>83</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>68</v>
@@ -3289,7 +3286,7 @@
         <v>85</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>86</v>
@@ -3300,7 +3297,7 @@
         <v>85</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>87</v>
@@ -3311,7 +3308,7 @@
         <v>85</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>68</v>
@@ -3322,7 +3319,7 @@
         <v>88</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>89</v>
@@ -3333,7 +3330,7 @@
         <v>88</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>91</v>
@@ -3344,7 +3341,7 @@
         <v>88</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>90</v>
@@ -3355,7 +3352,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>68</v>
@@ -3366,7 +3363,7 @@
         <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>94</v>
@@ -3377,7 +3374,7 @@
         <v>92</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>93</v>
@@ -3388,7 +3385,7 @@
         <v>92</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>68</v>
@@ -3399,7 +3396,7 @@
         <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>102</v>
@@ -3410,7 +3407,7 @@
         <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>101</v>
@@ -3421,7 +3418,7 @@
         <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>100</v>
@@ -3432,7 +3429,7 @@
         <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>99</v>
@@ -3443,7 +3440,7 @@
         <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>98</v>
@@ -3454,7 +3451,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>28</v>
@@ -3465,7 +3462,7 @@
         <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>70</v>
@@ -3476,7 +3473,7 @@
         <v>104</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>66</v>
@@ -3487,7 +3484,7 @@
         <v>104</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>67</v>
@@ -3498,7 +3495,7 @@
         <v>105</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>106</v>
@@ -3509,7 +3506,7 @@
         <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>123</v>
@@ -3520,7 +3517,7 @@
         <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>114</v>
@@ -3531,7 +3528,7 @@
         <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>116</v>
@@ -3542,7 +3539,7 @@
         <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>117</v>
@@ -3553,7 +3550,7 @@
         <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>7</v>
@@ -3564,7 +3561,7 @@
         <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>8</v>
@@ -3575,7 +3572,7 @@
         <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>122</v>
@@ -3596,7 +3593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3608,13 +3605,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
         <v>172</v>
       </c>
-      <c r="B1" t="s">
-        <v>173</v>
-      </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3627,7 +3624,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>20140513</v>
@@ -3635,18 +3632,18 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" t="s">
         <v>175</v>
-      </c>
-      <c r="C4" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" t="s">
         <v>177</v>
-      </c>
-      <c r="B5" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
